--- a/tradept/Excel/Localization/english/B宝箱信息表_Chests_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/B宝箱信息表_Chests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692775A-484D-41F9-AC0E-88F018CF4538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58647D6A-4CAC-4440-A0AF-C9E35F051250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4168,13 +4168,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G391" sqref="A1:G668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="24" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="207.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="165.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78.75">
